--- a/casospordepartamentoa0708.xlsx
+++ b/casospordepartamentoa0708.xlsx
@@ -399,7 +399,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>44730</v>
+        <v>49947</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -410,7 +410,7 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>56118</v>
+        <v>58184</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -421,7 +421,7 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>123875</v>
+        <v>133423</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -432,7 +432,7 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>19657</v>
+        <v>20276</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -443,7 +443,7 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>1376</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -454,7 +454,7 @@
         <v>17</v>
       </c>
       <c r="C7">
-        <v>1158</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -465,7 +465,7 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>1868</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -476,7 +476,7 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>2392</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -487,7 +487,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>3979</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -498,7 +498,7 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>8046</v>
+        <v>9616</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -509,7 +509,7 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>10978</v>
+        <v>11828</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -520,7 +520,7 @@
         <v>27</v>
       </c>
       <c r="C13">
-        <v>3125</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -531,7 +531,7 @@
         <v>41</v>
       </c>
       <c r="C14">
-        <v>1271</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -542,7 +542,7 @@
         <v>44</v>
       </c>
       <c r="C15">
-        <v>2504</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -553,7 +553,7 @@
         <v>47</v>
       </c>
       <c r="C16">
-        <v>7731</v>
+        <v>8260</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -564,7 +564,7 @@
         <v>50</v>
       </c>
       <c r="C17">
-        <v>3393</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -575,7 +575,7 @@
         <v>52</v>
       </c>
       <c r="C18">
-        <v>9006</v>
+        <v>9644</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -586,7 +586,7 @@
         <v>54</v>
       </c>
       <c r="C19">
-        <v>3393</v>
+        <v>4684</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -597,7 +597,7 @@
         <v>63</v>
       </c>
       <c r="C20">
-        <v>476</v>
+        <v>510</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -608,7 +608,7 @@
         <v>66</v>
       </c>
       <c r="C21">
-        <v>2291</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -619,7 +619,7 @@
         <v>68</v>
       </c>
       <c r="C22">
-        <v>5510</v>
+        <v>6713</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -630,7 +630,7 @@
         <v>70</v>
       </c>
       <c r="C23">
-        <v>6984</v>
+        <v>7448</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -641,7 +641,7 @@
         <v>73</v>
       </c>
       <c r="C24">
-        <v>3287</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -652,7 +652,7 @@
         <v>76</v>
       </c>
       <c r="C25">
-        <v>29754</v>
+        <v>31641</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -663,7 +663,7 @@
         <v>81</v>
       </c>
       <c r="C26">
-        <v>305</v>
+        <v>448</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -674,7 +674,7 @@
         <v>85</v>
       </c>
       <c r="C27">
-        <v>414</v>
+        <v>451</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -685,7 +685,7 @@
         <v>86</v>
       </c>
       <c r="C28">
-        <v>1294</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -696,7 +696,7 @@
         <v>88</v>
       </c>
       <c r="C29">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -707,7 +707,7 @@
         <v>91</v>
       </c>
       <c r="C30">
-        <v>2537</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -729,7 +729,7 @@
         <v>95</v>
       </c>
       <c r="C32">
-        <v>125</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -751,7 +751,7 @@
         <v>99</v>
       </c>
       <c r="C34">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
